--- a/pandas/cs401.xlsx
+++ b/pandas/cs401.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wasit\Documents\GitHub\tutorials\pandas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="9735" windowHeight="8280"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Copy of Form Responses 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy of Form Responses 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="179">
   <si>
     <t>Timestamp</t>
   </si>
@@ -384,29 +392,205 @@
   </si>
   <si>
     <t>ณิชาภัทร สิงขรอาจ</t>
+  </si>
+  <si>
+    <t>ชื่อ-นามสกุล.1</t>
+  </si>
+  <si>
+    <t>ชื่อ-นามสกุล.2</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:06:02</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:11:03</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:11:32</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:13:33</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:14:14</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:14:16</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:14:31</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:15:28</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:15:35</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:15:44</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:16:56</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:16:58</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:19:36</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:20:10</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:20:13</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:22:36</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:22:51</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:23:47</t>
+  </si>
+  <si>
+    <t>8/24/2015 13:26:41</t>
+  </si>
+  <si>
+    <t>8/24/2015 14:04:20</t>
+  </si>
+  <si>
+    <t>8/24/2015 15:32:24</t>
+  </si>
+  <si>
+    <t>8/24/2015 19:57:21</t>
+  </si>
+  <si>
+    <t>8/24/2015 20:13:18</t>
+  </si>
+  <si>
+    <t>8/24/2015 21:32:36</t>
+  </si>
+  <si>
+    <t>8/24/2015 22:41:05</t>
+  </si>
+  <si>
+    <t>8/24/2015 23:37:39</t>
+  </si>
+  <si>
+    <t>8/25/2015 1:16:02</t>
+  </si>
+  <si>
+    <t>8/25/2015 7:48:39</t>
+  </si>
+  <si>
+    <t>8/25/2015 10:12:25</t>
+  </si>
+  <si>
+    <t>8/25/2015 11:19:24</t>
+  </si>
+  <si>
+    <t>8/25/2015 14:10:13</t>
+  </si>
+  <si>
+    <t>8/25/2015 16:48:48</t>
+  </si>
+  <si>
+    <t>8/26/2015 11:38:36</t>
+  </si>
+  <si>
+    <t>8/26/2015 22:23:53</t>
+  </si>
+  <si>
+    <t>8/27/2015 12:55:23</t>
+  </si>
+  <si>
+    <t>8/27/2015 21:42:41</t>
+  </si>
+  <si>
+    <t>8/28/2015 0:22:40</t>
+  </si>
+  <si>
+    <t>8/28/2015 0:36:42</t>
+  </si>
+  <si>
+    <t>8/28/2015 21:57:43</t>
+  </si>
+  <si>
+    <t>8/29/2015 8:57:29</t>
+  </si>
+  <si>
+    <t>8/31/2015 12:43:49</t>
+  </si>
+  <si>
+    <t>8/31/2015 19:52:47</t>
+  </si>
+  <si>
+    <t>9/2/2015 0:41:33</t>
+  </si>
+  <si>
+    <t>9/3/2015 9:44:49</t>
+  </si>
+  <si>
+    <t>9/3/2015 20:36:50</t>
+  </si>
+  <si>
+    <t>9/5/2015 11:30:51</t>
+  </si>
+  <si>
+    <t>9/6/2015 1:47:23</t>
+  </si>
+  <si>
+    <t>9/6/2015 21:35:15</t>
+  </si>
+  <si>
+    <t>9/7/2015 10:01:07</t>
+  </si>
+  <si>
+    <t>9/9/2015 17:56:32</t>
+  </si>
+  <si>
+    <t>9/14/2015 9:42:53</t>
+  </si>
+  <si>
+    <t>9/14/2015 9:58:08</t>
+  </si>
+  <si>
+    <t>9/14/2015 14:04:09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -421,62 +605,52 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE67C73"/>
-          <bgColor rgb="FFE67C73"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -487,7 +661,34 @@
           <bgColor rgb="FFE67C73"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C73"/>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE67C73"/>
+          <bgColor rgb="FFE67C73"/>
+        </patternFill>
+      </fill>
       <border>
         <left/>
         <right/>
@@ -496,1078 +697,1472 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="21.57"/>
+    <col min="1" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>42240.545856655095</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.509611785E9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.509611629E9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="10">
+        <v>5509611785</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5509611629</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>42240.549343900464</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5.509650031E9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5.509650502E9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5509650031</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5509650502</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>42240.54968060185</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.509650494E9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.509650379E9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="10">
+        <v>5509650494</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5509650379</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>42240.55107540509</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5.5096507E9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5509650700</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>42240.55154586806</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5.509611769E9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.50961185E9</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5509611769</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5509611850</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>42240.551572083335</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.509680038E9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5509680038</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>42240.55175002315</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5.509611975E9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.5096119E9</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5509611975</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5509611900</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>42240.55241231481</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.50961152E9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5509611520</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>42240.552486898145</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.509650734E9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5509650734</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>42240.552595601854</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5.509611694E9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.509611702E9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5509611694</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5509611702</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>42240.55342873842</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.409650453E9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.509650205E9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.509650569E9</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5409650453</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5509650205</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5509650569</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>42240.55344581019</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5.509650239E9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.509650452E9</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5509650239</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5509650452</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>42240.55527696759</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5.509680012E9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5.509680053E9</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5509680012</v>
+      </c>
+      <c r="C14" s="10">
+        <v>5509680053</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>42240.55567560185</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5.509611561E9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.509611652E9</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="10">
+        <v>5509611561</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5509611652</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>42240.55570828704</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5.509650247E9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5.509650577E9</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5509650247</v>
+      </c>
+      <c r="C16" s="10">
+        <v>5509650577</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>42240.55736680556</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5.509650621E9</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5.509650528E9</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="10">
+        <v>5509650621</v>
+      </c>
+      <c r="C17" s="10">
+        <v>5509650528</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>42240.55753107639</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5.509530019E9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5.509611488E9</v>
-      </c>
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="10">
+        <v>5509530019</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5509611488</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>42240.5581771875</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.509650106E9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.509650387E9</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="10">
+        <v>5509650106</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5509650387</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>42240.56019570601</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5.509611736E9</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5.509611744E9</v>
-      </c>
-      <c r="E20" s="1" t="s">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="10">
+        <v>5509611736</v>
+      </c>
+      <c r="C20" s="10">
+        <v>5509611744</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>42240.58634729167</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5.50945001E9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5.509611587E9</v>
-      </c>
-      <c r="E21" s="1" t="s">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5509450010</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5509611587</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>42240.64749885417</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5.509611637E9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5.509680061E9</v>
-      </c>
-      <c r="E22" s="1" t="s">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="10">
+        <v>5509611637</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5509680061</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>42240.83149430556</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5.509611538E9</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5.509612072E9</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5509611538</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5509612072</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>42240.84257420139</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5.509650171E9</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5.509650429E9</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="10">
+        <v>5509650171</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5509650429</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>42240.89763503472</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.509650296E9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5.709611692E9</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5509650296</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5709611692</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>42240.94519172454</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5.509520028E9</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5509520028</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>42240.98448101852</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5.509611777E9</v>
-      </c>
-      <c r="C27" s="1">
-        <v>5.509611835E9</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="10">
+        <v>5509611777</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5509611835</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>42241.052802175924</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5.509612114E9</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5509612114</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>42241.3254525463</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5.509520044E9</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5.509680046E9</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5509520044</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5509680046</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>42241.42528934027</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5.509611801E9</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5.509620026E9</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5509611801</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5509620026</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <v>42241.47179982639</v>
-      </c>
-      <c r="B31" s="1">
-        <v>5.509611827E9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5.509612106E9</v>
-      </c>
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="10">
+        <v>5509611827</v>
+      </c>
+      <c r="C31" s="10">
+        <v>5509612106</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2">
-        <v>42241.59042460648</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.509650627E9</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5.509650809E9</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5509650627</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5509650809</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2">
-        <v>42241.70056091435</v>
-      </c>
-      <c r="B33" s="1">
-        <v>5.509490016E9</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5.509612031E9</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="10">
+        <v>5509490016</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5509612031</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2">
-        <v>42242.48514089121</v>
-      </c>
-      <c r="B34" s="1">
-        <v>5.509650635E9</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5.509650163E9</v>
-      </c>
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5509650635</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5509650163</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2">
-        <v>42242.93325618056</v>
-      </c>
-      <c r="B35" s="1">
-        <v>5.509611611E9</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="10">
+        <v>5509611611</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2">
-        <v>42243.53845835648</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5.509611819E9</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5.509611868E9</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="10">
+        <v>5509611819</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5509611868</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2">
-        <v>42243.904646967596</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5.509650916E9</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5.509650932E9</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="10">
+        <v>5509650916</v>
+      </c>
+      <c r="C37" s="10">
+        <v>5509650932</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2">
-        <v>42244.01574376157</v>
-      </c>
-      <c r="B38" s="1">
-        <v>5.509611553E9</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5.509612023E9</v>
-      </c>
-      <c r="E38" s="1" t="s">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="10">
+        <v>5509611553</v>
+      </c>
+      <c r="C38" s="10">
+        <v>5509612023</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2">
-        <v>42244.02548090278</v>
-      </c>
-      <c r="B39" s="1">
-        <v>5.509611512E9</v>
-      </c>
-      <c r="E39" s="1" t="s">
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="10">
+        <v>5509611512</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2">
-        <v>42244.91507752315</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5.509650544E9</v>
-      </c>
-      <c r="E40" s="1" t="s">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5509650544</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2">
-        <v>42245.37325682871</v>
-      </c>
-      <c r="B41" s="1">
-        <v>5.409650115E9</v>
-      </c>
-      <c r="E41" s="1" t="s">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="10">
+        <v>5409650115</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2">
-        <v>42247.53042880787</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5.509611496E9</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5.509611546E9</v>
-      </c>
-      <c r="E42" s="1" t="s">
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="10">
+        <v>5509611496</v>
+      </c>
+      <c r="C42" s="10">
+        <v>5509611546</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2">
-        <v>42247.828317430554</v>
-      </c>
-      <c r="B43" s="1">
-        <v>5.509611454E9</v>
-      </c>
-      <c r="E43" s="1" t="s">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="10">
+        <v>5509611454</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2">
-        <v>42249.028855185185</v>
-      </c>
-      <c r="B44" s="1">
-        <v>5.509650783E9</v>
-      </c>
-      <c r="E44" s="1" t="s">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="10">
+        <v>5509650783</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2">
-        <v>42250.4061212963</v>
-      </c>
-      <c r="B45" s="1">
-        <v>5.509611603E9</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5.509611884E9</v>
-      </c>
-      <c r="E45" s="1" t="s">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="10">
+        <v>5509611603</v>
+      </c>
+      <c r="C45" s="10">
+        <v>5509611884</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2">
-        <v>42250.858906388894</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5.509650254E9</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5.509612122E9</v>
-      </c>
-      <c r="E46" s="1" t="s">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="10">
+        <v>5509650254</v>
+      </c>
+      <c r="C46" s="10">
+        <v>5509612122</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2">
-        <v>42252.479754224536</v>
-      </c>
-      <c r="B47" s="1">
-        <v>5.50965065E9</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5.509650676E9</v>
-      </c>
-      <c r="E47" s="1" t="s">
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="10">
+        <v>5509650650</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5509650676</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2">
-        <v>42253.07457028935</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5.509611595E9</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5.509611967E9</v>
-      </c>
-      <c r="E48" s="1" t="s">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="10">
+        <v>5509611595</v>
+      </c>
+      <c r="C48" s="10">
+        <v>5509611967</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" s="10"/>
+      <c r="H48" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2">
-        <v>42253.89947804398</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5.509611843E9</v>
-      </c>
-      <c r="C49" s="1">
-        <v>5.509611942E9</v>
-      </c>
-      <c r="E49" s="1" t="s">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="10">
+        <v>5509611843</v>
+      </c>
+      <c r="C49" s="10">
+        <v>5509611942</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2">
-        <v>42254.417438136574</v>
-      </c>
-      <c r="B50" s="1">
-        <v>5.509650825E9</v>
-      </c>
-      <c r="C50" s="1">
-        <v>5.509650619E9</v>
-      </c>
-      <c r="E50" s="1" t="s">
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="10">
+        <v>5509650825</v>
+      </c>
+      <c r="C50" s="10">
+        <v>5509650619</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2">
-        <v>42256.747589328705</v>
-      </c>
-      <c r="B51" s="1">
-        <v>5.509650312E9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>5.509650445E9</v>
-      </c>
-      <c r="E51" s="1" t="s">
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="10">
+        <v>5509650312</v>
+      </c>
+      <c r="C51" s="10">
+        <v>5509650445</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2">
-        <v>42261.404776296295</v>
-      </c>
-      <c r="B52" s="1">
-        <v>5.509650585E9</v>
-      </c>
-      <c r="C52" s="1">
-        <v>5.509650684E9</v>
-      </c>
-      <c r="E52" s="1" t="s">
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="10">
+        <v>5509650585</v>
+      </c>
+      <c r="C52" s="10">
+        <v>5509650684</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2">
-        <v>42261.415375150464</v>
-      </c>
-      <c r="B53" s="1">
-        <v>5.509650353E9</v>
-      </c>
-      <c r="C53" s="1">
-        <v>5.50965027E9</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="10">
+        <v>5509650353</v>
+      </c>
+      <c r="C53" s="10">
+        <v>5509650270</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" s="10"/>
+      <c r="H53" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2">
-        <v>42261.586213483795</v>
-      </c>
-      <c r="B54" s="1">
-        <v>5.509650478E9</v>
-      </c>
-      <c r="E54" s="1" t="s">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="10">
+        <v>5509650478</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B:D">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>countif(B:D,B1)&gt;1</formula>
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>COUNTIF(B:D,B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B:D">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>countif(B:D,C1)&gt;1</formula>
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>COUNTIF(B:D,C1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B:D">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>countif(B:D,D1)&gt;1</formula>
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>COUNTIF(B:D,D1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="21.57"/>
+    <col min="1" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,12 +2188,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>42240.55107540509</v>
+        <v>42240.551075405092</v>
       </c>
       <c r="B2" s="4">
-        <v>5.5096507E9</v>
+        <v>5509650700</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1635,15 +2230,15 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42240.552595601854</v>
       </c>
       <c r="B3" s="4">
-        <v>5.509611694E9</v>
+        <v>5509611694</v>
       </c>
       <c r="C3" s="4">
-        <v>5.509611702E9</v>
+        <v>5509611702</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
@@ -1681,15 +2276,15 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>42240.55736680556</v>
+        <v>42240.557366805559</v>
       </c>
       <c r="B4" s="4">
-        <v>5.509650621E9</v>
+        <v>5509650621</v>
       </c>
       <c r="C4" s="4">
-        <v>5.509650528E9</v>
+        <v>5509650528</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4" t="s">
@@ -1727,15 +2322,15 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42240.5581771875</v>
       </c>
       <c r="B5" s="4">
-        <v>5.509650106E9</v>
+        <v>5509650106</v>
       </c>
       <c r="C5" s="4">
-        <v>5.509650387E9</v>
+        <v>5509650387</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="4" t="s">
@@ -1773,15 +2368,15 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>42241.42528934027</v>
+        <v>42241.425289340274</v>
       </c>
       <c r="B6" s="4">
-        <v>5.509611801E9</v>
+        <v>5509611801</v>
       </c>
       <c r="C6" s="4">
-        <v>5.509620026E9</v>
+        <v>5509620026</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
@@ -1819,15 +2414,15 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>42253.07457028935</v>
+        <v>42253.074570289347</v>
       </c>
       <c r="B7" s="4">
-        <v>5.509611595E9</v>
+        <v>5509611595</v>
       </c>
       <c r="C7" s="4">
-        <v>5.509611967E9</v>
+        <v>5509611967</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
@@ -1865,15 +2460,15 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42250.858906388894</v>
       </c>
       <c r="B8" s="1">
-        <v>5.509650254E9</v>
+        <v>5509650254</v>
       </c>
       <c r="C8" s="1">
-        <v>5.509612122E9</v>
+        <v>5509612122</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>102</v>
@@ -1885,15 +2480,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42256.747589328705</v>
       </c>
       <c r="B9" s="1">
-        <v>5.509650312E9</v>
+        <v>5509650312</v>
       </c>
       <c r="C9" s="1">
-        <v>5.509650445E9</v>
+        <v>5509650445</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>115</v>
@@ -1905,15 +2500,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>42252.479525092596</v>
       </c>
       <c r="B10" s="7">
-        <v>5.50965065E9</v>
+        <v>5509650650</v>
       </c>
       <c r="C10" s="7">
-        <v>5.509650676E9</v>
+        <v>5509650676</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -1951,15 +2546,15 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>42252.479754224536</v>
       </c>
       <c r="B11" s="7">
-        <v>5.50965065E9</v>
+        <v>5509650650</v>
       </c>
       <c r="C11" s="7">
-        <v>5.509650676E9</v>
+        <v>5509650676</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
@@ -1997,15 +2592,15 @@
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>42244.01574376157</v>
+        <v>42244.015743761571</v>
       </c>
       <c r="B12" s="1">
-        <v>5.509611553E9</v>
+        <v>5509611553</v>
       </c>
       <c r="C12" s="1">
-        <v>5.509612023E9</v>
+        <v>5509612023</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
@@ -2017,15 +2612,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>42240.55567560185</v>
+        <v>42240.555675601849</v>
       </c>
       <c r="B13" s="7">
-        <v>5.509611561E9</v>
+        <v>5509611561</v>
       </c>
       <c r="C13" s="7">
-        <v>5.509611652E9</v>
+        <v>5509611652</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
@@ -2063,15 +2658,15 @@
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>42242.59234806713</v>
+        <v>42242.592348067134</v>
       </c>
       <c r="B14" s="7">
-        <v>5.50965027E9</v>
+        <v>5509650270</v>
       </c>
       <c r="C14" s="7">
-        <v>5.509650353E9</v>
+        <v>5509650353</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="7" t="s">
@@ -2109,15 +2704,15 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>42250.4061212963</v>
+        <v>42250.406121296299</v>
       </c>
       <c r="B15" s="1">
-        <v>5.509611603E9</v>
+        <v>5509611603</v>
       </c>
       <c r="C15" s="1">
-        <v>5.509611884E9</v>
+        <v>5509611884</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>99</v>
@@ -2129,12 +2724,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>42242.93325618056</v>
+        <v>42242.933256180557</v>
       </c>
       <c r="B16" s="7">
-        <v>5.509611611E9</v>
+        <v>5509611611</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2171,15 +2766,15 @@
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>42240.55527696759</v>
+        <v>42240.555276967592</v>
       </c>
       <c r="B17" s="1">
-        <v>5.509680012E9</v>
+        <v>5509680012</v>
       </c>
       <c r="C17" s="1">
-        <v>5.509680053E9</v>
+        <v>5509680053</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>34</v>
@@ -2191,12 +2786,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42249.028855185185</v>
       </c>
       <c r="B18" s="1">
-        <v>5.509650783E9</v>
+        <v>5509650783</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>98</v>
@@ -2205,15 +2800,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>42241.3254525463</v>
+        <v>42241.325452546298</v>
       </c>
       <c r="B19" s="7">
-        <v>5.509520044E9</v>
+        <v>5509520044</v>
       </c>
       <c r="C19" s="7">
-        <v>5.509680046E9</v>
+        <v>5509680046</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
@@ -2251,15 +2846,15 @@
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>42240.98448101852</v>
+        <v>42240.984481018517</v>
       </c>
       <c r="B20" s="1">
-        <v>5.509611777E9</v>
+        <v>5509611777</v>
       </c>
       <c r="C20" s="1">
-        <v>5.509611835E9</v>
+        <v>5509611835</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>62</v>
@@ -2271,15 +2866,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42240.55344581019</v>
       </c>
       <c r="B21" s="7">
-        <v>5.509650239E9</v>
+        <v>5509650239</v>
       </c>
       <c r="C21" s="7">
-        <v>5.509650452E9</v>
+        <v>5509650452</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
@@ -2317,12 +2912,12 @@
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42241.052802175924</v>
       </c>
       <c r="B22" s="1">
-        <v>5.509612114E9</v>
+        <v>5509612114</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>65</v>
@@ -2331,15 +2926,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>42242.48514089121</v>
+        <v>42242.485140891207</v>
       </c>
       <c r="B23" s="1">
-        <v>5.509650635E9</v>
+        <v>5509650635</v>
       </c>
       <c r="C23" s="1">
-        <v>5.509650163E9</v>
+        <v>5509650163</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>80</v>
@@ -2351,15 +2946,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>42243.53845835648</v>
+        <v>42243.538458356481</v>
       </c>
       <c r="B24" s="1">
-        <v>5.509611819E9</v>
+        <v>5509611819</v>
       </c>
       <c r="C24" s="1">
-        <v>5.509611868E9</v>
+        <v>5509611868</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>84</v>
@@ -2371,12 +2966,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>42244.91507752315</v>
+        <v>42244.915077523146</v>
       </c>
       <c r="B25" s="1">
-        <v>5.509650544E9</v>
+        <v>5509650544</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>93</v>
@@ -2385,15 +2980,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" ht="6.75" customHeight="1">
+    <row r="26" spans="1:32" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>42241.47179982639</v>
+        <v>42241.471799826388</v>
       </c>
       <c r="B26" s="7">
-        <v>5.509611827E9</v>
+        <v>5509611827</v>
       </c>
       <c r="C26" s="7">
-        <v>5.509612106E9</v>
+        <v>5509612106</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
@@ -2431,15 +3026,15 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>42241.59042460648</v>
+        <v>42241.590424606482</v>
       </c>
       <c r="B27" s="7">
-        <v>5.509650627E9</v>
+        <v>5509650627</v>
       </c>
       <c r="C27" s="7">
-        <v>5.509650809E9</v>
+        <v>5509650809</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
@@ -2477,15 +3072,15 @@
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>42240.64749885417</v>
+        <v>42240.647498854167</v>
       </c>
       <c r="B28" s="1">
-        <v>5.509611637E9</v>
+        <v>5509611637</v>
       </c>
       <c r="C28" s="1">
-        <v>5.509680061E9</v>
+        <v>5509680061</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>52</v>
@@ -2497,15 +3092,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>42240.89763503472</v>
+        <v>42240.897635034722</v>
       </c>
       <c r="B29" s="1">
-        <v>5.509650296E9</v>
+        <v>5509650296</v>
       </c>
       <c r="C29" s="1">
-        <v>5.709611692E9</v>
+        <v>5709611692</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -2517,12 +3112,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>42240.94519172454</v>
+        <v>42240.945191724539</v>
       </c>
       <c r="B30" s="1">
-        <v>5.509520028E9</v>
+        <v>5509520028</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>61</v>
@@ -2531,15 +3126,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42247.53042880787</v>
       </c>
       <c r="B31" s="1">
-        <v>5.509611496E9</v>
+        <v>5509611496</v>
       </c>
       <c r="C31" s="1">
-        <v>5.509611546E9</v>
+        <v>5509611546</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>95</v>
@@ -2551,12 +3146,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>42240.551572083335</v>
       </c>
       <c r="B32" s="7">
-        <v>5.509680038E9</v>
+        <v>5509680038</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2593,12 +3188,12 @@
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>42240.55241231481</v>
+        <v>42240.552412314813</v>
       </c>
       <c r="B33" s="7">
-        <v>5.50961152E9</v>
+        <v>5509611520</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2635,15 +3230,15 @@
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" ht="15.0" customHeight="1">
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>42240.55753107639</v>
+        <v>42240.557531076389</v>
       </c>
       <c r="B34" s="7">
-        <v>5.509530019E9</v>
+        <v>5509530019</v>
       </c>
       <c r="C34" s="7">
-        <v>5.509611488E9</v>
+        <v>5509611488</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
@@ -2681,15 +3276,15 @@
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>42240.549343900464</v>
       </c>
       <c r="B35" s="1">
-        <v>5.509650031E9</v>
+        <v>5509650031</v>
       </c>
       <c r="C35" s="1">
-        <v>5.509650502E9</v>
+        <v>5509650502</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
@@ -2701,15 +3296,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>42240.54968060185</v>
+        <v>42240.549680601849</v>
       </c>
       <c r="B36" s="1">
-        <v>5.509650494E9</v>
+        <v>5509650494</v>
       </c>
       <c r="C36" s="1">
-        <v>5.509650379E9</v>
+        <v>5509650379</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
@@ -2721,15 +3316,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>42240.55175002315</v>
+        <v>42240.551750023151</v>
       </c>
       <c r="B37" s="1">
-        <v>5.509611975E9</v>
+        <v>5509611975</v>
       </c>
       <c r="C37" s="1">
-        <v>5.5096119E9</v>
+        <v>5509611900</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>21</v>
@@ -2741,15 +3336,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>42240.55570828704</v>
+        <v>42240.555708287036</v>
       </c>
       <c r="B38" s="1">
-        <v>5.509650247E9</v>
+        <v>5509650247</v>
       </c>
       <c r="C38" s="1">
-        <v>5.509650577E9</v>
+        <v>5509650577</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>40</v>
@@ -2761,15 +3356,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>42240.58634729167</v>
+        <v>42240.586347291668</v>
       </c>
       <c r="B39" s="1">
-        <v>5.50945001E9</v>
+        <v>5509450010</v>
       </c>
       <c r="C39" s="1">
-        <v>5.509611587E9</v>
+        <v>5509611587</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>50</v>
@@ -2781,15 +3376,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>42253.89947804398</v>
+        <v>42253.899478043983</v>
       </c>
       <c r="B40" s="7">
-        <v>5.509611843E9</v>
+        <v>5509611843</v>
       </c>
       <c r="C40" s="7">
-        <v>5.509611942E9</v>
+        <v>5509611942</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
@@ -2827,15 +3422,15 @@
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>42241.70056091435</v>
+        <v>42241.700560914353</v>
       </c>
       <c r="B41" s="1">
-        <v>5.509490016E9</v>
+        <v>5509490016</v>
       </c>
       <c r="C41" s="1">
-        <v>5.509612031E9</v>
+        <v>5509612031</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>77</v>
@@ -2847,12 +3442,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>42244.02548090278</v>
+        <v>42244.025480902783</v>
       </c>
       <c r="B42" s="1">
-        <v>5.509611512E9</v>
+        <v>5509611512</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>92</v>
@@ -2861,12 +3456,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42240.552486898145</v>
       </c>
       <c r="B43" s="7">
-        <v>5.509650734E9</v>
+        <v>5509650734</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2903,15 +3498,15 @@
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>42240.83149430556</v>
+        <v>42240.831494305559</v>
       </c>
       <c r="B44" s="7">
-        <v>5.509611538E9</v>
+        <v>5509611538</v>
       </c>
       <c r="C44" s="7">
-        <v>5.509612072E9</v>
+        <v>5509612072</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
@@ -2949,15 +3544,15 @@
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42254.417438136574</v>
       </c>
       <c r="B45" s="7">
-        <v>5.509650825E9</v>
+        <v>5509650825</v>
       </c>
       <c r="C45" s="7">
-        <v>5.509650619E9</v>
+        <v>5509650619</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="7" t="s">
@@ -2995,15 +3590,15 @@
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>42240.55154586806</v>
       </c>
       <c r="B46" s="1">
-        <v>5.509611769E9</v>
+        <v>5509611769</v>
       </c>
       <c r="C46" s="1">
-        <v>5.50961185E9</v>
+        <v>5509611850</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>16</v>
@@ -3015,18 +3610,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>42240.55342873842</v>
+        <v>42240.553428738422</v>
       </c>
       <c r="B47" s="1">
-        <v>5.409650453E9</v>
+        <v>5409650453</v>
       </c>
       <c r="C47" s="1">
-        <v>5.509650205E9</v>
+        <v>5509650205</v>
       </c>
       <c r="D47" s="1">
-        <v>5.509650569E9</v>
+        <v>5509650569</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>28</v>
@@ -3041,15 +3636,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42240.545856655095</v>
       </c>
       <c r="B48" s="7">
-        <v>5.509611785E9</v>
+        <v>5509611785</v>
       </c>
       <c r="C48" s="7">
-        <v>5.509611629E9</v>
+        <v>5509611629</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
@@ -3087,15 +3682,15 @@
       <c r="AE48" s="8"/>
       <c r="AF48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>42240.56019570601</v>
+        <v>42240.560195706013</v>
       </c>
       <c r="B49" s="7">
-        <v>5.509611736E9</v>
+        <v>5509611736</v>
       </c>
       <c r="C49" s="7">
-        <v>5.509611744E9</v>
+        <v>5509611744</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="7" t="s">
@@ -3133,15 +3728,15 @@
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>42240.84257420139</v>
+        <v>42240.842574201393</v>
       </c>
       <c r="B50" s="7">
-        <v>5.509650171E9</v>
+        <v>5509650171</v>
       </c>
       <c r="C50" s="7">
-        <v>5.509650429E9</v>
+        <v>5509650429</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
@@ -3179,15 +3774,15 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>42243.904646967596</v>
       </c>
       <c r="B51" s="1">
-        <v>5.509650916E9</v>
+        <v>5509650916</v>
       </c>
       <c r="C51" s="1">
-        <v>5.509650932E9</v>
+        <v>5509650932</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>86</v>
@@ -3199,12 +3794,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>42245.37325682871</v>
+        <v>42245.373256828709</v>
       </c>
       <c r="B52" s="1">
-        <v>5.409650115E9</v>
+        <v>5409650115</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>94</v>
@@ -3213,12 +3808,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>42247.828317430554</v>
       </c>
       <c r="B53" s="1">
-        <v>5.509611454E9</v>
+        <v>5509611454</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>97</v>
@@ -3228,6 +3823,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>